--- a/Lamia/DBASE/create/Base2_0_2.xlsx
+++ b/Lamia/DBASE/create/Base2_0_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="18" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="606">
   <si>
     <t>#DJAN</t>
   </si>
@@ -1789,6 +1789,102 @@
   </si>
   <si>
     <t>rue_complement</t>
+  </si>
+  <si>
+    <t>CD41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avant 1900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1900-1920 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1921-1940 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1941-1950 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1951-1960 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1961-1970 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1971-1980 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1981-1990 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1991-1995 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1996-2000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2001-2005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2006-2010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2011-2015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inconnue </t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>intervenant_1</t>
   </si>
 </sst>
 </file>
@@ -1847,9 +1943,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -1863,7 +1968,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1884,6 +1989,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2191,8 +2298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3604,7 +3711,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8819,10 +8926,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8834,10 +8941,11 @@
     <col min="5" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="14" customWidth="1"/>
+    <col min="10" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8846,7 +8954,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8855,7 +8963,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -8864,7 +8972,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -8873,7 +8981,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>568</v>
       </c>
@@ -8881,8 +8989,11 @@
       <c r="F5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -8908,7 +9019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -8919,7 +9030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -8930,7 +9041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -8944,7 +9055,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -8952,7 +9063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -8960,7 +9071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -8971,7 +9082,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>66</v>
       </c>
@@ -8979,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>67</v>
       </c>
@@ -8987,7 +9098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>68</v>
       </c>
@@ -8995,7 +9106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -9006,7 +9117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>66</v>
       </c>
@@ -9014,7 +9125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>67</v>
       </c>
@@ -9022,7 +9133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>68</v>
       </c>
@@ -9030,7 +9141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -9038,7 +9149,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -9046,7 +9157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>72</v>
       </c>
@@ -9057,7 +9168,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>73</v>
       </c>
@@ -9065,7 +9176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>74</v>
       </c>
@@ -9073,7 +9184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>569</v>
       </c>
@@ -9081,7 +9192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>75</v>
       </c>
@@ -9089,7 +9200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>76</v>
       </c>
@@ -9099,92 +9210,210 @@
       <c r="F28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>77</v>
       </c>
       <c r="G29" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>78</v>
       </c>
       <c r="G30" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>79</v>
       </c>
       <c r="G31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>80</v>
       </c>
       <c r="G32" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="I32" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I35" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I36" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I37" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I39" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I40" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I41" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I42" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>82</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>83</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B46" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B48" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B51" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Lamia/DBASE/create/Base2_0_2.xlsx
+++ b/Lamia/DBASE/create/Base2_0_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="18" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <sheet name="10_siartelia" sheetId="49" r:id="rId48"/>
     <sheet name="11_utilisateur" sheetId="50" r:id="rId49"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="608">
   <si>
     <t>#DJAN</t>
   </si>
@@ -321,9 +321,6 @@
     <t>listeparametres</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT  Evenement.*, Objet.* FROM Evenement INNER JOIN Objet ON Evenement.lpk_objet = Objet.pk_objet WHERE Objet.lpk_revision_end IS NULL AND </t>
-  </si>
-  <si>
     <t>SELECT  Evenement.*, Objet.* FROM Evenement INNER JOIN Objet ON Evenement.lpk_objet = Objet.pk_objet</t>
   </si>
   <si>
@@ -1885,19 +1882,42 @@
   </si>
   <si>
     <t>intervenant_1</t>
+  </si>
+  <si>
+    <t>SELECT  Evenement.*, Objet.* FROM Evenement INNER JOIN Objet ON Evenement.lpk_objet = Objet.pk_objet WHERE Objet.lpk_revision_end IS NULL AND  Objet.datetimedestruction IS NULL</t>
+  </si>
+  <si>
+    <t>Travaux déjà réalisés</t>
+  </si>
+  <si>
+    <t>TRE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1963,34 +1983,36 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2299,7 +2321,7 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,378 +2332,378 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>362</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>369</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>439</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>445</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>451</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>453</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>461</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>463</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>469</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>471</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>496</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>498</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>500</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>502</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>510</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>517</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>521</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>525</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>526</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>531</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>543</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>544</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>558</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>559</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>561</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -2742,7 +2764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -2759,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -2768,31 +2790,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
         <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
@@ -2827,7 +2849,7 @@
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -2838,7 +2860,7 @@
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -2863,40 +2885,40 @@
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -2904,7 +2926,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -2912,7 +2934,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -2920,21 +2942,21 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -2971,31 +2993,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
@@ -3030,7 +3052,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -3042,7 +3064,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3068,7 +3090,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -3076,23 +3098,23 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -3100,7 +3122,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3109,52 +3131,52 @@
         <v>65</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
@@ -3162,7 +3184,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -3196,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -3205,31 +3227,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
@@ -3264,7 +3286,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -3276,7 +3298,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3302,7 +3324,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -3310,15 +3332,15 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -3326,7 +3348,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -3334,7 +3356,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3342,7 +3364,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -3350,7 +3372,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -3358,7 +3380,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -3366,7 +3388,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -3374,7 +3396,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -3382,7 +3404,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -3397,8 +3419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3416,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3424,28 +3446,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
         <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -3479,12 +3501,12 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -3495,7 +3517,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -3506,57 +3528,57 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>129</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>131</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
         <v>133</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3596,28 +3618,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
         <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -3651,7 +3673,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -3662,7 +3684,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3673,21 +3695,21 @@
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -3695,10 +3717,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3728,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3736,28 +3758,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
         <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -3791,7 +3813,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -3803,7 +3825,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3815,71 +3837,71 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3907,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3915,28 +3937,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -3970,7 +3992,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -3982,7 +4004,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -4008,7 +4030,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -4016,7 +4038,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -4024,7 +4046,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -4032,7 +4054,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -4066,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4074,28 +4096,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
         <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -4129,7 +4151,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -4141,7 +4163,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -4153,24 +4175,24 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4180,10 +4202,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4198,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4206,28 +4228,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -4261,7 +4283,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -4273,7 +4295,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -4299,15 +4321,15 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -4315,7 +4337,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -4323,18 +4345,18 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G15" s="9">
         <v>0</v>
@@ -4342,7 +4364,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G16" s="9">
         <v>1</v>
@@ -4350,7 +4372,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F17" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G17" s="9">
         <v>2</v>
@@ -4358,7 +4380,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F18" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G18" s="9">
         <v>3</v>
@@ -4366,7 +4388,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -4374,79 +4396,87 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F21" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F22" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F23" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F24" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
+      <c r="F25" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4475,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4483,28 +4513,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
         <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -4538,7 +4568,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -4550,7 +4580,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -4562,21 +4592,21 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -4584,51 +4614,51 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4664,23 +4694,23 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -4780,7 +4810,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -4812,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4820,28 +4850,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -4875,7 +4905,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -4886,7 +4916,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -4897,30 +4927,30 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4948,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4956,28 +4986,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -5011,7 +5041,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -5022,7 +5052,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5033,16 +5063,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5050,7 +5080,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -5058,7 +5088,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -5066,7 +5096,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -5082,7 +5112,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5097,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5105,28 +5135,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
         <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -5160,7 +5190,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -5171,7 +5201,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5182,54 +5212,54 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5242,7 +5272,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5257,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5265,28 +5295,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
         <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -5320,7 +5350,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -5331,7 +5361,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5342,24 +5372,24 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5372,7 +5402,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5389,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5397,28 +5427,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -5452,7 +5482,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -5463,7 +5493,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5474,94 +5504,91 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="F11" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5591,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5599,28 +5626,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -5654,7 +5681,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -5665,7 +5692,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5676,16 +5703,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -5713,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5721,28 +5748,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -5776,7 +5803,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -5784,7 +5811,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5803,7 +5830,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -5811,31 +5838,31 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -5844,68 +5871,68 @@
         <v>65</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F17" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F18" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F19" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F20" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -5913,7 +5940,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -5944,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5952,28 +5979,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -6007,7 +6034,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -6015,7 +6042,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -6023,13 +6050,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -6037,7 +6064,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -6046,44 +6073,44 @@
         <v>65</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -6094,7 +6121,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -6105,7 +6132,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -6116,7 +6143,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -6135,7 +6162,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6152,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6160,28 +6187,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
         <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -6215,7 +6242,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -6223,7 +6250,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -6231,88 +6258,88 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>15</v>
@@ -6320,55 +6347,63 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -6396,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6404,28 +6439,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -6459,7 +6494,7 @@
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -6490,7 +6525,7 @@
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -6498,7 +6533,7 @@
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -6541,23 +6576,23 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -6648,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6656,28 +6691,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -6711,7 +6746,7 @@
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -6742,7 +6777,7 @@
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -6750,7 +6785,7 @@
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -6759,7 +6794,7 @@
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>15</v>
@@ -6770,50 +6805,50 @@
     </row>
     <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F15" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="G15" t="s">
         <v>429</v>
-      </c>
-      <c r="G15" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>434</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -6841,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6849,28 +6884,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -6904,7 +6939,7 @@
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -6935,7 +6970,7 @@
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -6943,7 +6978,7 @@
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -6974,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6982,28 +7017,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -7037,7 +7072,7 @@
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -7068,7 +7103,7 @@
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -7076,7 +7111,7 @@
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -7109,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7117,28 +7152,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -7172,7 +7207,7 @@
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -7203,7 +7238,7 @@
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -7211,7 +7246,7 @@
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -7266,7 +7301,7 @@
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -7274,10 +7309,10 @@
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" t="s">
         <v>460</v>
-      </c>
-      <c r="B3" t="s">
-        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -7328,7 +7363,7 @@
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -7336,7 +7371,7 @@
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -7344,7 +7379,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>20</v>
@@ -7398,7 +7433,7 @@
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -7406,15 +7441,15 @@
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" t="s">
         <v>460</v>
-      </c>
-      <c r="B3" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>20</v>
@@ -7422,10 +7457,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -7481,7 +7516,7 @@
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
@@ -7489,66 +7524,66 @@
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>65</v>
@@ -7556,7 +7591,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F11" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
@@ -7564,7 +7599,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -7572,10 +7607,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>65</v>
@@ -7583,7 +7618,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
@@ -7591,7 +7626,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -7599,10 +7634,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>65</v>
@@ -7610,7 +7645,7 @@
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G17" s="6">
         <v>1</v>
@@ -7618,7 +7653,7 @@
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -7672,7 +7707,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -7680,7 +7715,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>20</v>
@@ -7688,7 +7723,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>20</v>
@@ -7742,7 +7777,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -7750,7 +7785,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>20</v>
@@ -7758,7 +7793,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>20</v>
@@ -7804,23 +7839,23 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -8005,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8013,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8044,7 +8079,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>12</v>
@@ -8060,7 +8095,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>20</v>
@@ -8068,10 +8103,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -8099,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8107,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8138,7 +8173,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>12</v>
@@ -8154,23 +8189,23 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>15</v>
@@ -8224,7 +8259,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -8232,15 +8267,15 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>20</v>
@@ -8248,23 +8283,23 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>20</v>
@@ -8272,15 +8307,15 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>20</v>
@@ -8334,7 +8369,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -8342,18 +8377,18 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -8404,7 +8439,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -8412,7 +8447,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>15</v>
@@ -8420,7 +8455,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>15</v>
@@ -8428,10 +8463,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -8482,26 +8517,26 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8538,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8569,7 +8604,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>12</v>
@@ -8577,39 +8612,39 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>15</v>
@@ -8625,10 +8660,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>65</v>
@@ -8636,7 +8671,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
@@ -8644,7 +8679,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G13" s="10">
         <v>0</v>
@@ -8698,7 +8733,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -8706,7 +8741,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>15</v>
@@ -8714,7 +8749,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>15</v>
@@ -8722,23 +8757,23 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>15</v>
@@ -8746,7 +8781,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>15</v>
@@ -8754,15 +8789,15 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -8770,7 +8805,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>15</v>
@@ -8778,7 +8813,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>15</v>
@@ -8786,7 +8821,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>15</v>
@@ -8840,7 +8875,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -8894,7 +8929,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -8902,7 +8937,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>20</v>
@@ -8910,13 +8945,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>565</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -8928,8 +8963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8965,32 +9000,32 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9146,7 +9181,7 @@
         <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -9186,7 +9221,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -9211,10 +9246,10 @@
         <v>65</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -9225,10 +9260,10 @@
         <v>77</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -9239,10 +9274,10 @@
         <v>78</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -9253,10 +9288,10 @@
         <v>79</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -9267,90 +9302,90 @@
         <v>80</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I33" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I34" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I35" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I36" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I37" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I38" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I39" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I40" s="14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I41" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I42" s="14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -9379,7 +9414,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>15</v>
@@ -9387,7 +9422,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>15</v>
@@ -9395,7 +9430,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>15</v>
@@ -9403,7 +9438,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>15</v>
@@ -9411,7 +9446,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>15</v>
@@ -9428,7 +9463,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9443,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>605</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -9452,31 +9487,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
@@ -9511,7 +9546,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -9522,7 +9557,7 @@
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -9550,7 +9585,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -9559,7 +9594,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -9567,7 +9602,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -9614,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -9623,31 +9658,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
@@ -9682,7 +9717,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -9693,7 +9728,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -9726,7 +9761,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -9734,7 +9769,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -9742,7 +9777,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -9750,7 +9785,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -9781,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -9790,31 +9825,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
@@ -9849,7 +9884,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -9860,7 +9895,7 @@
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -9885,7 +9920,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -9916,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -9925,31 +9960,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
         <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
@@ -9984,7 +10019,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -9995,7 +10030,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -10006,7 +10041,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -10020,7 +10055,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -10028,7 +10063,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -10036,7 +10071,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -10044,7 +10079,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -10052,7 +10087,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -10060,7 +10095,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -10068,7 +10103,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -10076,32 +10111,32 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" t="s">
         <v>119</v>
-      </c>
-      <c r="G19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s">
         <v>121</v>
-      </c>
-      <c r="B20" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
